--- a/Python/XSZFCX.xlsx
+++ b/Python/XSZFCX.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="193">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -976,7 +976,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1463,6 +1463,9 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>83</v>
       </c>
@@ -1487,7 +1490,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>83</v>
@@ -1513,7 +1516,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>83</v>
@@ -1539,7 +1542,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>83</v>
@@ -1565,7 +1568,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>83</v>
@@ -1591,7 +1594,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>83</v>
@@ -1617,7 +1620,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>83</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>83</v>
@@ -1669,7 +1672,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>83</v>
@@ -1695,7 +1698,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>83</v>
@@ -1721,7 +1724,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>83</v>
@@ -1747,7 +1750,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>83</v>
@@ -1773,7 +1776,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>83</v>
@@ -1799,7 +1802,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>83</v>
@@ -1825,7 +1828,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>83</v>
@@ -1851,7 +1854,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>83</v>
@@ -1877,7 +1880,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>83</v>
@@ -1903,7 +1906,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>83</v>
@@ -1929,10 +1932,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>140</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>121</v>
@@ -1973,7 +1973,10 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>122</v>
@@ -1994,7 +1997,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>83</v>
@@ -2020,7 +2023,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>83</v>
@@ -2046,7 +2049,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>83</v>
@@ -2072,7 +2075,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>83</v>
@@ -2098,7 +2101,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>83</v>
@@ -2124,7 +2127,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>83</v>
@@ -2145,7 +2148,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>83</v>
@@ -2169,7 +2172,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>83</v>
@@ -2195,7 +2198,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>83</v>
@@ -2215,10 +2218,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>132</v>
@@ -2234,9 +2234,6 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E52" s="1" t="s">
         <v>133</v>
       </c>

--- a/Python/XSZFCX.xlsx
+++ b/Python/XSZFCX.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="197">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -93,9 +93,6 @@
     <t>``````</t>
   </si>
   <si>
-    <t>======</t>
-  </si>
-  <si>
     <t>}}}}}}</t>
   </si>
   <si>
@@ -213,417 +210,409 @@
     <t>////////////</t>
   </si>
   <si>
+    <t>//*[@id="myModal2"]/div[2]/div/div[2]/form/div[1]/div/input</t>
+  </si>
+  <si>
+    <t>//*[@id="myModal2"]/div[2]/div/div[2]/form/div[1]/a</t>
+  </si>
+  <si>
+    <t>//*[@id="myModal2"]/div[2]/div/div[2]/form/div[2]/div/input</t>
+  </si>
+  <si>
+    <t>//*[@id="myModal2"]/div[2]/div/div[2]/form/div[6]/div/input</t>
+  </si>
+  <si>
+    <t>//*[@id="myModal2"]/div[2]/div/div[2]/form/div[7]/div/input</t>
+  </si>
+  <si>
+    <t>n2n</t>
+  </si>
+  <si>
+    <t>nn2n</t>
+  </si>
+  <si>
+    <t>nn2n3</t>
+  </si>
+  <si>
+    <t>nn2n3nn2n32</t>
+  </si>
+  <si>
+    <t>nn2n3nn2n32d</t>
+  </si>
+  <si>
+    <t>nn2n3nn2n3ttt</t>
+  </si>
+  <si>
+    <t>nn2n3t</t>
+  </si>
+  <si>
+    <t>_-_-</t>
+  </si>
+  <si>
+    <t>!!!!</t>
+  </si>
+  <si>
+    <t>@@@@</t>
+  </si>
+  <si>
+    <t>####</t>
+  </si>
+  <si>
+    <t>$$$$</t>
+  </si>
+  <si>
+    <t>%%%%</t>
+  </si>
+  <si>
+    <t>^^^^</t>
+  </si>
+  <si>
+    <t>&amp;&amp;&amp;&amp;</t>
+  </si>
+  <si>
+    <t>****</t>
+  </si>
+  <si>
+    <t>((((</t>
+  </si>
+  <si>
+    <t>))))</t>
+  </si>
+  <si>
+    <t>++++</t>
+  </si>
+  <si>
+    <t>````</t>
+  </si>
+  <si>
+    <t>dd====</t>
+  </si>
+  <si>
+    <t>{{{{</t>
+  </si>
+  <si>
+    <t>}}}}</t>
+  </si>
+  <si>
+    <t>||||</t>
+  </si>
+  <si>
+    <t>::::</t>
+  </si>
+  <si>
+    <t>""""</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>[[[[</t>
+  </si>
+  <si>
+    <t>]]]]</t>
+  </si>
+  <si>
+    <t>\\\\</t>
+  </si>
+  <si>
+    <t>;;;;</t>
+  </si>
+  <si>
+    <t>''''</t>
+  </si>
+  <si>
+    <t>,,,,</t>
+  </si>
+  <si>
+    <t>....</t>
+  </si>
+  <si>
+    <t>////</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     BBB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBB2   </t>
+  </si>
+  <si>
+    <t>BBB B2</t>
+  </si>
+  <si>
+    <t>@#$234</t>
+  </si>
+  <si>
+    <t>@#$短发</t>
+  </si>
+  <si>
+    <t>@#$dfDWE</t>
+  </si>
+  <si>
+    <t>非打发打发</t>
+  </si>
+  <si>
+    <t>fdafFDADF</t>
+  </si>
+  <si>
+    <t>34134556</t>
+  </si>
+  <si>
+    <t>打发打发dfa</t>
+  </si>
+  <si>
+    <t>等发达134</t>
+  </si>
+  <si>
+    <t>等发达fdfa413@#$</t>
+  </si>
+  <si>
+    <t>yutr4</t>
+  </si>
+  <si>
+    <t>huiyuan2</t>
+  </si>
+  <si>
+    <t>111,12da</t>
+  </si>
+  <si>
+    <t>1111,12da</t>
+  </si>
+  <si>
+    <t>ddd,12da</t>
+  </si>
+  <si>
+    <t>dddd,12da</t>
+  </si>
+  <si>
+    <t>11dd,12da</t>
+  </si>
+  <si>
+    <t>1234567asdfgh,12da</t>
+  </si>
+  <si>
+    <t>1234567asdfg,1234567asdfg</t>
+  </si>
+  <si>
+    <t>1234567asdfg,1234567asdfgh</t>
+  </si>
+  <si>
+    <t>1234567asdfgh,1234567asdfgh</t>
+  </si>
+  <si>
+    <t>1234567asdfgh,1234567asdfg</t>
+  </si>
+  <si>
+    <t>12da,111</t>
+  </si>
+  <si>
+    <t>12da,1111</t>
+  </si>
+  <si>
+    <t>12da,ddd</t>
+  </si>
+  <si>
+    <t>12da,dddd</t>
+  </si>
+  <si>
+    <t>12da,11dd</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>打</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>1dd</t>
+  </si>
+  <si>
+    <t>打1212dd</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuv1</t>
+  </si>
+  <si>
+    <t>1abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvw</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxx</t>
+  </si>
+  <si>
+    <t>123456789012345678901234567890123456789012345678901</t>
+  </si>
+  <si>
+    <t>_-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    dd22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfad222    </t>
+  </si>
+  <si>
+    <t>!!!!!</t>
+  </si>
+  <si>
+    <t>@@@@@</t>
+  </si>
+  <si>
+    <t>#####</t>
+  </si>
+  <si>
+    <t>$$$$$</t>
+  </si>
+  <si>
+    <t>*******</t>
+  </si>
+  <si>
+    <t>++++++</t>
+  </si>
+  <si>
+    <t>{{{{{{{</t>
+  </si>
+  <si>
+    <t>|||||||</t>
+  </si>
+  <si>
+    <t>:::::::</t>
+  </si>
+  <si>
+    <t>,,,,,,,</t>
+  </si>
+  <si>
+    <t>.......</t>
+  </si>
+  <si>
+    <t>你好dfadf</t>
+  </si>
+  <si>
+    <t>你好！@#</t>
+  </si>
+  <si>
+    <t>你好dad341#@4</t>
+  </si>
+  <si>
+    <t>//*[@id="myModal2"]/div[2]/div/div[2]/form/div[2]/a[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="myModal2"]/div[2]/div/div[2]/form/div[6]/a[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="myModal2"]/div[2]/div/div[2]/form/div[7]/a[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>预期-订单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="myModal2"]/div[2]/div/div[2]/form/div[1]/div/input</t>
-  </si>
-  <si>
-    <t>//*[@id="myModal2"]/div[2]/div/div[2]/form/div[1]/a</t>
+  </si>
+  <si>
+    <t>*仅可以使用数字, 字数范围1-20位</t>
+  </si>
+  <si>
+    <t>1234567890123456789</t>
+  </si>
+  <si>
+    <t>12345678901234567890</t>
+  </si>
+  <si>
+    <t>123456789012345678901</t>
+  </si>
+  <si>
+    <t>---------------</t>
+  </si>
+  <si>
+    <t>__________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234567890    </t>
+  </si>
+  <si>
+    <t>1315   51615</t>
   </si>
   <si>
     <t>预期-会员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="myModal2"]/div[2]/div/div[2]/form/div[2]/div/input</t>
-  </si>
-  <si>
-    <t>//*[@id="myModal2"]/div[2]/div/div[2]/form/div[2]/a</t>
+  </si>
+  <si>
+    <t>*请确认单个账号输入是否正确</t>
+  </si>
+  <si>
+    <t>*仅可以使用英文字母,数字, 下划线, 减号和逗号, 字数范围0-1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>1234567asdfgh,1234567asdfg,121567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfg</t>
+  </si>
+  <si>
+    <t>1234567asdfgh,1234567asdfg,121567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfg1</t>
+  </si>
+  <si>
+    <t>1234567asdfgh,123456asdfgh</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwx</t>
   </si>
   <si>
     <t>预期-金流商名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="myModal2"]/div[2]/div/div[2]/form/div[6]/div/input</t>
-  </si>
-  <si>
-    <t>//*[@id="myModal2"]/div[2]/div/div[2]/form/div[6]/a</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzab1</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabc1</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabc11</t>
+  </si>
+  <si>
+    <t>*请确认单个金流商名称输入是否正确</t>
+  </si>
+  <si>
+    <t>一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十</t>
+  </si>
+  <si>
+    <t>dfadsf  213dfa</t>
+  </si>
+  <si>
+    <t>*仅可以使用中英文字母,数字, 下划线, 减号和逗号, 字数范围0-1000</t>
+  </si>
+  <si>
+    <t>1234567asdfgh,1234567asdfg,121567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,123四五六七八fg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfg</t>
+  </si>
+  <si>
+    <t>12345d大dfgh,1234567asdfg,121567asdfgh,123456117asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,12345发大水asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234短发asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfg1</t>
+  </si>
+  <si>
+    <t>11d短发d,12da的</t>
+  </si>
+  <si>
+    <t>1234567短发asdfgh,1234放大567a洒sdfg</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuv12等我abcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwx</t>
   </si>
   <si>
     <t>预期-商户号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="myModal2"]/div[2]/div/div[2]/form/div[7]/div/input</t>
-  </si>
-  <si>
-    <t>//*[@id="myModal2"]/div[2]/div/div[2]/form/div[7]/a</t>
-  </si>
-  <si>
-    <t>1234567890123456789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345678901234567890</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456789012345678901</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>---------------</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>__________________</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1234567890    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1315   51615</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*仅可以使用数字, 字数范围1-20位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n2n</t>
-  </si>
-  <si>
-    <t>nn2n</t>
-  </si>
-  <si>
-    <t>nn2n3</t>
-  </si>
-  <si>
-    <t>nn2n3nn2n32</t>
-  </si>
-  <si>
-    <t>nn2n3nn2n32d</t>
-  </si>
-  <si>
-    <t>nn2n3nn2n3ttt</t>
-  </si>
-  <si>
-    <t>nn2n3t</t>
-  </si>
-  <si>
-    <t>_-_-</t>
-  </si>
-  <si>
-    <t>!!!!</t>
-  </si>
-  <si>
-    <t>@@@@</t>
-  </si>
-  <si>
-    <t>####</t>
-  </si>
-  <si>
-    <t>$$$$</t>
-  </si>
-  <si>
-    <t>%%%%</t>
-  </si>
-  <si>
-    <t>^^^^</t>
-  </si>
-  <si>
-    <t>&amp;&amp;&amp;&amp;</t>
-  </si>
-  <si>
-    <t>****</t>
-  </si>
-  <si>
-    <t>((((</t>
-  </si>
-  <si>
-    <t>))))</t>
-  </si>
-  <si>
-    <t>++++</t>
-  </si>
-  <si>
-    <t>````</t>
-  </si>
-  <si>
-    <t>dd====</t>
-  </si>
-  <si>
-    <t>{{{{</t>
-  </si>
-  <si>
-    <t>}}}}</t>
-  </si>
-  <si>
-    <t>||||</t>
-  </si>
-  <si>
-    <t>::::</t>
-  </si>
-  <si>
-    <t>""""</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;&lt;</t>
-  </si>
-  <si>
-    <t>&gt;&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>????</t>
-  </si>
-  <si>
-    <t>[[[[</t>
-  </si>
-  <si>
-    <t>]]]]</t>
-  </si>
-  <si>
-    <t>\\\\</t>
-  </si>
-  <si>
-    <t>;;;;</t>
-  </si>
-  <si>
-    <t>''''</t>
-  </si>
-  <si>
-    <t>,,,,</t>
-  </si>
-  <si>
-    <t>....</t>
-  </si>
-  <si>
-    <t>////</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     BBB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBB2   </t>
-  </si>
-  <si>
-    <t>BBB B2</t>
-  </si>
-  <si>
-    <t>@#$234</t>
-  </si>
-  <si>
-    <t>@#$短发</t>
-  </si>
-  <si>
-    <t>@#$dfDWE</t>
-  </si>
-  <si>
-    <t>非打发打发</t>
-  </si>
-  <si>
-    <t>fdafFDADF</t>
-  </si>
-  <si>
-    <t>34134556</t>
-  </si>
-  <si>
-    <t>打发打发dfa</t>
-  </si>
-  <si>
-    <t>等发达134</t>
-  </si>
-  <si>
-    <t>等发达fdfa413@#$</t>
-  </si>
-  <si>
-    <t>yutr4</t>
-  </si>
-  <si>
-    <t>huiyuan2</t>
-  </si>
-  <si>
-    <t>请确认单个账号输入是否正确</t>
-  </si>
-  <si>
-    <t>1234567asdfgh,1234567asdfg,121567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1234567asdfgh,1234567asdfg,121567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfg1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅可以使用英文字母,数字, 下划线, 减号和逗号, 字数范围0-1000</t>
-  </si>
-  <si>
-    <t>仅可以使用英文字母,数字, 下划线, 减号和逗号, 字数范围0-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111,12da</t>
-  </si>
-  <si>
-    <t>1111,12da</t>
-  </si>
-  <si>
-    <t>ddd,12da</t>
-  </si>
-  <si>
-    <t>dddd,12da</t>
-  </si>
-  <si>
-    <t>11dd,12da</t>
-  </si>
-  <si>
-    <t>1234567asdfgh,12da</t>
-  </si>
-  <si>
-    <t>1234567asdfg,1234567asdfg</t>
-  </si>
-  <si>
-    <t>1234567asdfg,1234567asdfgh</t>
-  </si>
-  <si>
-    <t>1234567asdfgh,1234567asdfgh</t>
-  </si>
-  <si>
-    <t>1234567asdfgh,1234567asdfg</t>
-  </si>
-  <si>
-    <t>12da,111</t>
-  </si>
-  <si>
-    <t>12da,1111</t>
-  </si>
-  <si>
-    <t>12da,ddd</t>
-  </si>
-  <si>
-    <t>12da,dddd</t>
-  </si>
-  <si>
-    <t>12da,11dd</t>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>打</t>
-  </si>
-  <si>
-    <t>d1</t>
-  </si>
-  <si>
-    <t>1dd</t>
-  </si>
-  <si>
-    <t>打1212dd</t>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuv1</t>
-  </si>
-  <si>
-    <t>1abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvw</t>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxx</t>
-  </si>
-  <si>
-    <t>123456789012345678901234567890123456789012345678901</t>
-  </si>
-  <si>
-    <t>_-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    dd22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfad222    </t>
-  </si>
-  <si>
-    <t>!!!!!</t>
-  </si>
-  <si>
-    <t>@@@@@</t>
-  </si>
-  <si>
-    <t>#####</t>
-  </si>
-  <si>
-    <t>$$$$$</t>
-  </si>
-  <si>
-    <t>*******</t>
-  </si>
-  <si>
-    <t>++++++</t>
-  </si>
-  <si>
-    <t>{{{{{{{</t>
-  </si>
-  <si>
-    <t>|||||||</t>
-  </si>
-  <si>
-    <t>:::::::</t>
-  </si>
-  <si>
-    <t>,,,,,,,</t>
-  </si>
-  <si>
-    <t>.......</t>
-  </si>
-  <si>
-    <t>你好dfadf</t>
-  </si>
-  <si>
-    <t>你好！@#</t>
-  </si>
-  <si>
-    <t>你好dad341#@4</t>
-  </si>
-  <si>
-    <t>请确认单个...输入是否正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dfadsf  213dfa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅可以使用中英文字母,数字, 下划线, 减号和逗号, 字数范围0-1000</t>
+  </si>
+  <si>
+    <t>*请确认单个商户号输入是否正确</t>
   </si>
   <si>
     <t>12345d大dfgh,1234567asdfg,121567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,12345发大水asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234短发asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfg1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1234567asdfgh,1234567asdfg,121567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,123四五六七八fg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuv12等我abcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11d短发d,12da的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1234567短发asdfgh,1234放大567a洒sdfg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuv1212abcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -975,8 +964,8 @@
   <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -995,49 +984,49 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>67</v>
+        <v>172</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>1</v>
@@ -1047,26 +1036,20 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1074,41 +1057,38 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F3" s="3"/>
       <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="M3" s="1">
         <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F4" s="3"/>
       <c r="I4" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -1116,818 +1096,815 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F5" s="3"/>
       <c r="I5" s="1" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F6" s="3"/>
       <c r="I6" s="1" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F8" s="3"/>
       <c r="I8" s="1" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F9" s="3"/>
       <c r="I9" s="1" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>6</v>
+        <v>185</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>166</v>
+        <v>142</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -1935,64 +1912,64 @@
         <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F40" s="3"/>
       <c r="I40" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F41" s="3"/>
       <c r="I41" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -2000,25 +1977,25 @@
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -2026,25 +2003,25 @@
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -2052,25 +2029,25 @@
         <v>10</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -2078,25 +2055,25 @@
         <v>11</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -2104,25 +2081,25 @@
         <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -2130,20 +2107,23 @@
         <v>13</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F47" s="3"/>
       <c r="I47" s="1" t="s">
-        <v>180</v>
+        <v>34</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -2151,23 +2131,20 @@
         <v>14</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F48" s="3"/>
       <c r="I48" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -2175,25 +2152,25 @@
         <v>15</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -2201,16 +2178,19 @@
         <v>16</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>0</v>
@@ -2221,244 +2201,247 @@
         <v>17</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E52" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F52" s="3"/>
       <c r="I52" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E53" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="F53" s="3"/>
       <c r="I53" s="1" t="s">
-        <v>141</v>
+        <v>189</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E54" s="1" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E55" s="1" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E56" s="1" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E57" s="1" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>190</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E58" s="1" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E59" s="1" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E60" s="1" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E61" s="1" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E62" s="1" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>191</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E63" s="1" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E64" s="1" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E65" s="1" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E66" s="1" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E67" s="1" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E68" s="1" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E69" s="1" t="s">
-        <v>154</v>
+        <v>132</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E70" s="1" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E71" s="1" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/Python/XSZFCX.xlsx
+++ b/Python/XSZFCX.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="200">
   <si>
     <t xml:space="preserve">        </t>
   </si>
@@ -549,70 +549,83 @@
     <t>*仅可以使用英文字母,数字, 下划线, 减号和逗号, 字数范围0-1000</t>
   </si>
   <si>
+    <t>1234567asdfgh,1234567asdfg,121567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfg</t>
+  </si>
+  <si>
+    <t>1234567asdfgh,1234567asdfg,121567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfg1</t>
+  </si>
+  <si>
+    <t>1234567asdfgh,123456asdfgh</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwx</t>
+  </si>
+  <si>
+    <t>预期-金流商名称</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzab1</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabc1</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabc11</t>
+  </si>
+  <si>
+    <t>*请确认单个金流商名称输入是否正确</t>
+  </si>
+  <si>
+    <t>一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十</t>
+  </si>
+  <si>
+    <t>dfadsf  213dfa</t>
+  </si>
+  <si>
+    <t>*仅可以使用中英文字母,数字, 下划线, 减号和逗号, 字数范围0-1000</t>
+  </si>
+  <si>
+    <t>1234567asdfgh,1234567asdfg,121567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,123四五六七八fg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfg</t>
+  </si>
+  <si>
+    <t>12345d大dfgh,1234567asdfg,121567asdfgh,123456117asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,12345发大水asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234短发asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfg1</t>
+  </si>
+  <si>
+    <t>11d短发d,12da的</t>
+  </si>
+  <si>
+    <t>1234567短发asdfgh,1234放大567a洒sdfg</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuv12等我abcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwx</t>
+  </si>
+  <si>
+    <t>预期-商户号</t>
+  </si>
+  <si>
+    <t>*请确认单个商户号输入是否正确</t>
+  </si>
+  <si>
+    <t>12345d大dfgh,1234567asdfg,121567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,12345发大水asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234短发asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfg1</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuv1212abcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~~~~~~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~~~~~~~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">      </t>
-  </si>
-  <si>
-    <t>1234567asdfgh,1234567asdfg,121567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfg</t>
-  </si>
-  <si>
-    <t>1234567asdfgh,1234567asdfg,121567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfg1</t>
-  </si>
-  <si>
-    <t>1234567asdfgh,123456asdfgh</t>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwx</t>
-  </si>
-  <si>
-    <t>预期-金流商名称</t>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrstuvwxyzab1</t>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrstuvwxyzabc1</t>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrstuvwxyzabc11</t>
-  </si>
-  <si>
-    <t>*请确认单个金流商名称输入是否正确</t>
-  </si>
-  <si>
-    <t>一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十</t>
-  </si>
-  <si>
-    <t>dfadsf  213dfa</t>
-  </si>
-  <si>
-    <t>*仅可以使用中英文字母,数字, 下划线, 减号和逗号, 字数范围0-1000</t>
-  </si>
-  <si>
-    <t>1234567asdfgh,1234567asdfg,121567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,123四五六七八fg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十一二三四五六七八九十,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfg</t>
-  </si>
-  <si>
-    <t>12345d大dfgh,1234567asdfg,121567asdfgh,123456117asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,12345发大水asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234短发asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfg1</t>
-  </si>
-  <si>
-    <t>11d短发d,12da的</t>
-  </si>
-  <si>
-    <t>1234567短发asdfgh,1234放大567a洒sdfg</t>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuv12等我abcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwx</t>
-  </si>
-  <si>
-    <t>预期-商户号</t>
-  </si>
-  <si>
-    <t>*请确认单个商户号输入是否正确</t>
-  </si>
-  <si>
-    <t>12345d大dfgh,1234567asdfg,121567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,12345发大水asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234短发asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfgh,1234567asdfg1234567asdfg1</t>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuv1212abcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -961,11 +974,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P71"/>
+  <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1:N1048576"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1011,7 +1024,7 @@
         <v>66</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>161</v>
@@ -1023,7 +1036,7 @@
         <v>67</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>162</v>
@@ -1049,7 +1062,7 @@
         <v>134</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1067,7 +1080,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -1153,7 +1166,7 @@
       </c>
       <c r="F8" s="3"/>
       <c r="I8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>139</v>
@@ -1171,7 +1184,7 @@
       </c>
       <c r="F9" s="3"/>
       <c r="I9" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>140</v>
@@ -1191,13 +1204,13 @@
         <v>174</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>174</v>
@@ -1217,10 +1230,10 @@
         <v>174</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>6</v>
@@ -1246,13 +1259,13 @@
         <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>141</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1272,13 +1285,13 @@
         <v>141</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>142</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1298,7 +1311,7 @@
         <v>142</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>143</v>
@@ -1361,7 +1374,7 @@
         <v>145</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>174</v>
@@ -1381,10 +1394,10 @@
         <v>174</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>146</v>
@@ -1410,7 +1423,7 @@
         <v>146</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>147</v>
@@ -1436,7 +1449,7 @@
         <v>147</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>148</v>
@@ -1462,7 +1475,7 @@
         <v>148</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>149</v>
@@ -1488,7 +1501,7 @@
         <v>149</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>18</v>
@@ -1514,7 +1527,7 @@
         <v>18</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>19</v>
@@ -1540,7 +1553,7 @@
         <v>19</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>20</v>
@@ -1566,7 +1579,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>150</v>
@@ -1577,7 +1590,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>198</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>164</v>
@@ -1592,7 +1605,7 @@
         <v>150</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>21</v>
@@ -1603,7 +1616,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>164</v>
@@ -1618,7 +1631,7 @@
         <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>22</v>
@@ -1629,13 +1642,13 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>94</v>
+        <v>198</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>174</v>
@@ -1644,7 +1657,7 @@
         <v>22</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>151</v>
@@ -1655,13 +1668,13 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>174</v>
@@ -1670,7 +1683,7 @@
         <v>151</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>23</v>
@@ -1681,13 +1694,13 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>174</v>
@@ -1696,7 +1709,10 @@
         <v>23</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>174</v>
@@ -1704,19 +1720,22 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="I31" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="J31" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>152</v>
@@ -1727,13 +1746,13 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>174</v>
@@ -1742,7 +1761,7 @@
         <v>152</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>24</v>
@@ -1753,13 +1772,13 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>174</v>
@@ -1768,7 +1787,7 @@
         <v>24</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>153</v>
@@ -1779,13 +1798,13 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>174</v>
@@ -1794,7 +1813,7 @@
         <v>153</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>154</v>
@@ -1805,13 +1824,13 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>174</v>
@@ -1820,7 +1839,7 @@
         <v>154</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>25</v>
@@ -1831,22 +1850,22 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>26</v>
@@ -1857,22 +1876,22 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>27</v>
@@ -1883,13 +1902,13 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>174</v>
@@ -1898,7 +1917,7 @@
         <v>27</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>28</v>
@@ -1909,16 +1928,22 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>7</v>
+        <v>169</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>175</v>
+        <v>104</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>29</v>
@@ -1929,17 +1954,16 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40" s="3"/>
+        <v>199</v>
+      </c>
       <c r="I40" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>30</v>
@@ -1950,20 +1974,17 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F41" s="3"/>
       <c r="I41" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>31</v>
@@ -1974,22 +1995,20 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>174</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="F42" s="3"/>
       <c r="I42" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>32</v>
@@ -2000,13 +2019,13 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>174</v>
@@ -2015,7 +2034,7 @@
         <v>32</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>33</v>
@@ -2026,13 +2045,13 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>174</v>
@@ -2041,24 +2060,24 @@
         <v>33</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>155</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>174</v>
@@ -2067,7 +2086,7 @@
         <v>155</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>156</v>
@@ -2078,13 +2097,13 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>174</v>
@@ -2093,7 +2112,7 @@
         <v>156</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>34</v>
@@ -2104,20 +2123,22 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="I47" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>157</v>
@@ -2128,13 +2149,13 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F48" s="3"/>
       <c r="I48" s="1" t="s">
@@ -2149,22 +2170,20 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>174</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F49" s="3"/>
       <c r="I49" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>159</v>
@@ -2175,13 +2194,13 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>174</v>
@@ -2190,7 +2209,7 @@
         <v>159</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>0</v>
@@ -2198,31 +2217,39 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E52" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F52" s="3"/>
+      <c r="F52" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="I52" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>174</v>
@@ -2230,14 +2257,14 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E53" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F53" s="3"/>
       <c r="I53" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>119</v>
@@ -2245,8 +2272,9 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E54" s="1" t="s">
-        <v>176</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="F54" s="3"/>
       <c r="I54" s="1" t="s">
         <v>119</v>
       </c>
@@ -2256,10 +2284,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E55" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>120</v>
@@ -2270,7 +2295,10 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E56" s="1" t="s">
-        <v>119</v>
+        <v>176</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>121</v>
@@ -2281,13 +2309,13 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E57" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>122</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>174</v>
@@ -2295,10 +2323,10 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E58" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>124</v>
@@ -2306,7 +2334,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E59" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>124</v>
@@ -2317,7 +2345,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E60" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>125</v>
@@ -2328,7 +2356,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E61" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>126</v>
@@ -2339,13 +2367,13 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E62" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>127</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>174</v>
@@ -2353,10 +2381,10 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E63" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>129</v>
@@ -2364,7 +2392,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E64" s="1" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>129</v>
@@ -2375,7 +2403,7 @@
     </row>
     <row r="65" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E65" s="1" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>130</v>
@@ -2386,7 +2414,7 @@
     </row>
     <row r="66" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E66" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>131</v>
@@ -2397,7 +2425,7 @@
     </row>
     <row r="67" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E67" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>132</v>
@@ -2408,39 +2436,44 @@
     </row>
     <row r="68" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E68" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>133</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E69" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E70" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E71" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F71" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E72" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>173</v>
       </c>
     </row>
